--- a/gcam/output/ssp24p5tol5/iamc_template_gcam_transport_two_wheelers.xlsx
+++ b/gcam/output/ssp24p5tol5/iamc_template_gcam_transport_two_wheelers.xlsx
@@ -202,28 +202,28 @@
     <t>GCAM</t>
   </si>
   <si>
-    <t>Final Energy|Transport|Freight|Road|2W and 3W|BEV</t>
+    <t>Final Energy|Transport|Pass|Road|2W and 3W|BEV</t>
   </si>
   <si>
-    <t>Final Energy|Transport|Freight|Road|2W and 3W|Liquids</t>
+    <t>Final Energy|Transport|Pass|Road|2W and 3W|Liquids</t>
   </si>
   <si>
-    <t>Final Energy|Transport|Freight|Road|2W and 3W|NG</t>
+    <t>Final Energy|Transport|Pass|Road|2W and 3W|NG</t>
   </si>
   <si>
-    <t>Final Energy|Transport|Freight|Road|2W and 3W|LA-BEV</t>
+    <t>Final Energy|Transport|Pass|Road|2W and 3W|LA-BEV</t>
   </si>
   <si>
-    <t>Distance|Transport|Freight|Road|2W and 3W|BEV</t>
+    <t>Distance|Transport|Pass|Road|2W and 3W|BEV</t>
   </si>
   <si>
-    <t>Distance|Transport|Freight|Road|2W and 3W|Liquids</t>
+    <t>Distance|Transport|Pass|Road|2W and 3W|Liquids</t>
   </si>
   <si>
-    <t>Distance|Transport|Freight|Road|2W and 3W|NG</t>
+    <t>Distance|Transport|Pass|Road|2W and 3W|NG</t>
   </si>
   <si>
-    <t>Distance|Transport|Freight|Road|2W and 3W|LA-BEV</t>
+    <t>Distance|Transport|Pass|Road|2W and 3W|LA-BEV</t>
   </si>
   <si>
     <t>EJ/yr</t>
